--- a/braph2composite_rfe/pipelines/composite_rfe/SIM_DATASET_TWO_GROUPS/SimGroup1.vois.xlsx
+++ b/braph2composite_rfe/pipelines/composite_rfe/SIM_DATASET_TWO_GROUPS/SimGroup1.vois.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="27" uniqueCount="27">
   <si>
     <t>Subject ID</t>
   </si>
@@ -145,8 +145,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" customWidth="true"/>
-    <col min="2" max="2" width="4.453125" customWidth="true"/>
+    <col min="1" max="1" width="14.28515625" customWidth="true"/>
+    <col min="2" max="2" width="3.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -166,7 +166,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>0.02</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="4">
@@ -174,7 +174,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0">
-        <v>0.02</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="5">
@@ -182,7 +182,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0">
-        <v>0.02</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="6">
@@ -190,7 +190,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0">
-        <v>0.02</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="7">
@@ -198,7 +198,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="0">
-        <v>0.02</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="8">
@@ -206,7 +206,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="0">
-        <v>0.02</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="9">
@@ -214,7 +214,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="0">
-        <v>0.02</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="10">
@@ -222,7 +222,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="0">
-        <v>0.02</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="11">
@@ -230,7 +230,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="0">
-        <v>0.02</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="12">
@@ -238,7 +238,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="0">
-        <v>0.02</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="13">
@@ -246,7 +246,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="0">
-        <v>0.02</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="14">
@@ -254,7 +254,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="0">
-        <v>0.02</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="15">
@@ -262,7 +262,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="0">
-        <v>0.02</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="16">
@@ -270,7 +270,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="0">
-        <v>0.02</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="17">
@@ -278,7 +278,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="0">
-        <v>0.02</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="18">
@@ -286,7 +286,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="0">
-        <v>0.02</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="19">
@@ -294,7 +294,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="0">
-        <v>0.02</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="20">
@@ -302,7 +302,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="0">
-        <v>0.02</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="21">
@@ -310,7 +310,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="0">
-        <v>0.02</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="22">
@@ -318,7 +318,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="0">
-        <v>0.02</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="23">
@@ -326,7 +326,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="0">
-        <v>0.02</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="24">
@@ -334,7 +334,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="0">
-        <v>0.02</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="25">
@@ -342,7 +342,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="0">
-        <v>0.02</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="26">
@@ -350,7 +350,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="0">
-        <v>0.02</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="27">
@@ -358,7 +358,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="0">
-        <v>0.02</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/braph2composite_rfe/pipelines/composite_rfe/SIM_DATASET_TWO_GROUPS/SimGroup1.vois.xlsx
+++ b/braph2composite_rfe/pipelines/composite_rfe/SIM_DATASET_TWO_GROUPS/SimGroup1.vois.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="54" uniqueCount="27">
   <si>
     <t>Subject ID</t>
   </si>
